--- a/data_annotation/output_to_annonate/file_3_angelos.xlsx
+++ b/data_annotation/output_to_annonate/file_3_angelos.xlsx
@@ -469,12 +469,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>What an amazing experience to see how fish gets picked up early morning, and then to have a wonderful meal with the freshest of ingredients.  I cannot say enough about the kindness of the staff especially Antonia, so welcoming and friendly, always making sure the group was…</t>
+          <t>We had a terrific day at the sea with a greate captain! Through small, we caught a lot of fish which we later got fresh from the grill. Thanks!  We'd recommend this trip to anyone:)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fun, perfect, and delicious!</t>
+          <t>17th of may</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -485,12 +485,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mr Captain Giorgos was exceptionaly friendly, welcoming and nice .  I lived an unforgetable experience in the blue aegean sea and I would undoubtably recommend it to everyone !!</t>
+          <t>Best thing we did in the whole week! Extremely friendly staff. One person in our company chosed chicken instead of fish for the meal. When time came for cooking, the captain realized that he forgot to bring chicken. We told him that it was okay, but he sent an employee swimming to the shore to pick up chicken brought there from another member of the staff, and then he swom back to the boat with the chicken held above the surface. Just 11 people on board at the time makes it nice. Bring water, since the only drink included is with the meal at the end of the trip.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unique Experience</t>
+          <t>Amazing!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -501,12 +501,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Captain Nick and his "mate" were very obliging, knowlegeble and were very pleasant to be with on the boat. From the moment we met them, to the time we left we were at ease and informed of everything. I fished, did nt catch anything to mention!! But then it was in the middle of the day and was nt really expecting to. We snorkelled, went to the warm springs and ate on the boat. Nick had caught a fish first thing in the morning which was lovely - as were the salads and accompaniments. To see the sunset from the boat is different and truly lovely.   The trip was not cheap, but I would suggest anyone took the trip.…</t>
+          <t>This was a highlight of our visit to Santorini.  Anthi is so very proud of what she does and her heritage.  It bleeds through in all she does on the fishing trip.  Her crew is very helpful and cheery as well.  We truly enjoyed every minute.  It was very informative to learn about several aspects of fishing from traps to nets to hand lines.  We strongly recommend this fishing experience.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fishing and Sunset</t>
+          <t>An excursion of a lifetime</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -517,12 +517,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>In our opinion this trip out is a must do. From start to finish were made to feel welcome, and within 30 minutes of boarding the boat, we felt that we were with friends that we had known all along. Antonia and Michalis, and their lovely daughter Nikki who also joined us, were…</t>
+          <t>Its the second time for us with caption vasiliy really nice person we hope to come back again it was really fun we was with all the famliy and we really really enjoyi am very recommmend for who doesnt like fishing also it really nice tour and meal thanks again caption vasiliy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OMG ! What a great day out.</t>
+          <t>Very good</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -533,12 +533,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>We had a wonderful day out with Dimitris and Efi. They were so kind and accommodating to us and our 6 month old baby. We were made to feel very welcome and nothing was too much trouble. The lunch of our freshly caught fish catch was absolutely delicious and the views of the…</t>
+          <t>When we went I was a bit sceptical about it, thinking I have been on fishing trips before but this was completely different. There was 6 of us another group were unable to go at the last minute. Luckily enough I wrong about it and we had one of the best trips ever. The boat is a proper working  fishing boat with with all the nets. So he actually puts out the nets takes you to various place to view and swim then returns a few hours later to bring in the nets {they were a cple of kilometres long}. You then have your diner with the fresh fish. I am not really a fish eater, I am now it was fabulous. All of us had a fantastic meal along side the homemade wine.. The captain and the crew were superb and also as with most Greeks we have met I love their humour as well as the passion and pride they have in their work. Finally one thing to point out was he does not overload  the boat with loads and loads of people  just to make money. On the way back we passed a boat sailing out of Zante town, it was not much bigger than ours, it was absolutely rammed with people like sardines. To me that is not an enjoyable day out. All in all the six of us had a fabulous day out and we would highly recommend it to anyone.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fantastic day out</t>
+          <t>Best ever boat trip.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -549,12 +549,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anthi and her crew gave us a great fishing and dining experience on our vacation! First, shuttle service to and from your hotel; all the gear for fishing,snorkeling, and swimming (towels) is provided; the fresh catch of the day is cooked right on the boat (grilled or fried),…</t>
+          <t>This isan experience of a lifetime. We left zante Harbour while the sun was rising and then we stopped to put the fishing nets in the water then we had sone melon and drinks. Then we left the netd behind to go and have a swim at a beautiful secluded beach for a few hours. Then back to the nets to pull them back on board. A very successful catch too with a variety of fish caught including an octopus and a sponge. Then we sailed to another beach for a swim while the fish was prepared on board with wine spaghetti and bread. Absolutely beautiful meal. Giorgos the captain has a great sense of humour and lets you get involved in everything and if you're lucky he might let you stear the boat. Very clean and hygienic which i didn't expect. Couldn't recommend anymore, dont miss out!</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Great experience!</t>
+          <t>Fantastic trip</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -565,12 +565,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>An absolute amazing experience fresh seafood and helpful at every hand. Worth the money and time, a must visit place.</t>
+          <t xml:space="preserve">This was an absolute treasure of a day.  I Was assisted on board by the lovely Efi and Demitriou as I am a bit small and stiff.  Coffee and tea were offered before we set out.   First to fishing nets where we helped take the fish from the nets to put aside for lunch.  Efi explained about the nets and the type of fish we'd caught and then we headed to a cove for a swim while lunch was prepped for us.  Another cove for a swim and a clay bath them back to the boat for lunch and it was absolutely delicious.  relaxation time before heading back to port. Efi produced lovely home made lemonade.  I could not recommend this tour enough.  Thanks to all the crew </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amazing experience</t>
+          <t>Fishing like never before</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -581,12 +581,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Absolutely amazing experience, my partner and I had very active lines. The Greek salad with our bbq fish made the experience complete after a swim in the very clear sea. The on board fishermen were a joy to spend your time with and always ready to assist and advise. I would…</t>
+          <t>An authentic and wonderful experience with a great team (Captains Nikolas and his father Artemis).And the food so good!Our best day in Mykonos.My sun (12 years old) want to do this trip again and again and again...Thank you!!!</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Best Fishing trip that I have been on.</t>
+          <t xml:space="preserve">Our best day in Mykonos </t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -597,12 +597,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>This was my 3rd and most successful fishing trip with Dimitris. Every time is a pleasure as Dimitris is great company and really knows how to find a good catch. Spent the morning trolling around Tsgouria island catching many tuna which we later barbecued at home and also caught…</t>
+          <t>Not much to say about this day except... Absolutely perfect!!! The entire boat was for us and hosted by this beautiful couple that gave us the complete experience of what we were looking for.Nikos the captain knows everything about those islands and where to go to make you spend a perfect day for fishing, discovering nice spots for swimming and show you some breathtaking places ; can’t forget about madame also, Frosso who’s a really good chef and knows how to host you perfectly.Well, if you pass by Milos don’t hesitate go to this place you won’t be disappointed that’s for sure.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Great morning's fishing</t>
+          <t>What a day!!!</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -613,12 +613,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Really layed back and family run boat.  You can fish,swim,chill at your own pace. No rush and you have meal on boat! If I come back here I will be looking them up and try to bring friends.</t>
+          <t xml:space="preserve">We had a brilliant day out with this tour. It was a unique experience being out on a fishing boat and watching the guys catch the fish - the lunch of fresh fish was something to remember! I'd highly recommend </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Great experience</t>
+          <t>Fabulous trip</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -629,12 +629,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>The only word to describe this trip is ‘fabulous’.   Great crew, lovely boat, everything provided.   Went on this trip as a group of 7 adults, holiday with our adult family.  The delightful crew catered for everyone.    Starts with a sightseeing cruise along Rhodes town then off…</t>
+          <t>An amazing day out and what Poros has been missing. Giannis is a brilliant skipper, host, fishing genius! 6 of us went, 3 adults and 3 children and everyone loved it!!! Highly recommend this for all! See you again next year</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Brilliant day out</t>
+          <t>Brilliant fishing trip and snorkelling</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -645,12 +645,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The day trip around Poros island was excellent, Tasos is a great host. He showed us the nicest coasts of Poros and during the trip he cooked for us fresh fish. He also provided soft drinks and wine. I highly recommend this trip with Tasos.</t>
+          <t>Spending the day with Efi and Dimitrios (not forgetting Mohammed) is the best day you will have on your holiday. As you make your way out to sea, you will get a lovely breakfast of tea/coffee and homemade biscuits/cakes..You'll not only learn how difficult being a fisherman is, but get to help bring in the catch for the day (if you want to), which is so much fun.Dimitrios cleans the catch and Efi then cooks it for lunch ( there is always so much left over). As well as the freshest fish you will ever have you will have homemade wine/ouzo/lemonade, plus beer, water and soft drinks. All the salads, potatoes, herbs and fruits are organic, grown by Efi and Dimitrios. It goes without saying that Efi's cooking is to die for!You will have swim stops at the most beautiful beaches/coves, accessable only by boat.This is no ordinary day out as Efi and Dimitrios are great company and truly kind, funny and very informative. We didn't stop laughing all day.Great value for a full day out.Thanks Efi and Dimitrios for yet another wonderful day with superb food, drink, but most of all lovely company / friends.Can't wait until next year!Best wishes to you for a good season</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>best day in Poros</t>
+          <t>Best Fishing Trip Ever!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -661,12 +661,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>It was a lovely day on the ship...!! beautiful people, amazing food and sea.. even if you are not that interested in the fishing, you should prefer this tour because of the wonderful fresh fish and shrimps you ll have on board.. can t wait to go back next time  I ll be in…</t>
+          <t>Can highly recommend our boat trip around Skiathos and Skopelos. Our skipper/guide, Dim, went above and beyond to make sure we had a great day. We stopped multiple times - all stunning locations - and even saw dolphins in the late afternoon. Delicious food with croissants, seafood and fruit, plus ice-cold waters and wine. The boat was simple but a good size for seven of us.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>everything they say and more!!!</t>
+          <t>Excellent boat trip</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -677,12 +677,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2nd review as 1st one lost! My husband and 2 friends had the pleasure of going on this trip on Mon 3rd Sept. Antonia and Michalis were fabulous hosts from the moment we stepped on board and I hold a lot of memories from this day. We had a lot of laughs with the other guests and…</t>
+          <t>It is my first time ocean fishing.Giorgos is the best captain! He is knowledgable, and likes to share with people.  Such a good experience. It's not only about fishing. The food we got is fabulous as well!!</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>a truly unforgettable day</t>
+          <t>Fantastic day with Giorgos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -693,12 +693,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Helpful staff on the boat, teaches non fishing ppl how to use equipment correctly   During trip nice views of Rhodes, provides a non fish option for non fish eaters  good food! </t>
+          <t xml:space="preserve">We had a great day fishing with the captain Jannis and his wife Nancy. Not only we caught a lot of fish and calamari, also the whole day felt really familiar. After a short ride from Pythagorio habour we started fishing right away. Then we went to a really nice beach with epic blue water. After a dip in the water it we ate the catch from the day directly on the boat a box with cold beverages is also on the boat and for free. All together is was an amazing day. </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Good fishing trip</t>
+          <t>Great Day on the Boat</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -709,12 +709,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>We have just arrived back fro a wonderful day with Antonia and Michalis on their boat. There were 12 guests - English Italian and Dutch (with a smattering of Columbian and Sri Lankan). We arrived at the boat to be greeted with authentic Greek coffee and homemade cake and set…</t>
+          <t>We met in the harbour at  8 am , it was a lovely day and the sea was lovely and calm.we were welcomed on board by Antonia, who gave us Greek coffee and home made cake. We then went out to sea to pull in the nets that her husband Michaelis had been out and laid at 3 am. The nets go on forever and take over an hour to pull in , but the fish that are caught are very varied and saw fish never seen before.Then the nets are emptied of the fish  mainly by Mustapha and Michaelis but you can help if you want? We then stopped at a beautiful  spot, where we swam in the clear turquoise waters whilst Antonia prepared Lunch. After lunch there was the opportunity to swim again or fish with rods.The pictures say it all,never have I had fish so fresh and so much, the best lunch and experience of our whole holiday .We eventually made our way back , returning about four thirty. Great value day out with a lovely family, not forgetting the other passengers on the boat who also made the day enjoyable.You will not be disappointed</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amazing day with fabulous food and great company</t>
+          <t>This is a must do , do not miss this, best day ever</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -725,12 +725,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>We enjoyed a 4 hour fishing trip combined with very tasty food and swimming. The captain is friendly, relaxed and good with kids. Try it - you will not regret.</t>
+          <t>Well, what can I say, came with 13 mates, booked with George a while back, and we had a brilliant day!!  Great fun, swimming, great hosts, and the lunch/ wine etc was lovely! Caught some fish too, and had a swim with a turtle! Great thanks to George, his mum in law, and other crew, a great day!</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Excellent fishing trip for the whole family</t>
+          <t>Sniffer’s 50th!</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -741,12 +741,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>We had such a great time during our excursion together with Niko and his Wife and their team! Very intimate boat trip (10 people), great fresh and tasty food (0km fish - we ate all fish fished by the boat fisher during the morning!), wonderful blue crystal water and last but not…</t>
+          <t>Best experience ever, we went for tuna and got a 30 kilos yellow fin, we had dolphin folowing us as an extra and sashimi as dinner️. Dimitri is the best, long life memories, efraistoume!!</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amanzing fishing boat trip in Poliegos!</t>
+          <t>Tuna fishing skiathos 2020</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -757,12 +757,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>I spent two weeks in Kos and I booked a fishing trip before the arrival, via facebook.  I enjoyed it so much, the price was good for a 4 hour trip and we caught great fish so I rebooked a second trip with captain tasos! We liked that we took the fish and a restaurant in the…</t>
+          <t>We had the treat of spending the day with Nikos and Frosso and just one other passenger. The day felt so natural and relaxed, as if they were our friends and we were just joining them for a day of fishing and island hopping. They both took extra care to show us the beauty of their home, to feed us constantly, and to tailor the trip exactly how we wanted. Highlights include learning about the local fishery, swimming in the bluest water we have ever seen, watching them reel in the fishing nets to see what we had caught, enjoying a home-cooked lunch of fresh fish, squid, macaroni, salad, and delicious wine, all prepared on the boat by amazing Frosso! We felt like family and were sad to say goodbye to them at the end of the day. A perfect trip for couples, friends, or family, we hope to come back someday!</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fishing</t>
+          <t>Highlight of our trip!</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -773,12 +773,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>We had a very special day in Nikos and Froso's boat, traveling around the Polyegos island famous for the turquoise waters and caves. Watching real fishing with nets and preparing the lunch with the fish catch was an experience you cannot imagine. They were  very friendly and…</t>
+          <t>My son and I vacationed for a week in Milos and wanted to arrange a guided fishing trip, something we do in most locations we visit. Nikos and his wife agreed to take Ben out even though we knew their season was coming to an end. The weather wasn't great, it rained most of the day. But Nikos and his wife were the most hospitable hosts, so kind and attentive to Ben. He enjoyed catching a snapper and several other fish, they enjoyed a nice lunch together. Ben has not stopped talking about what wonderful people they were. I hope they keep in touch. It was one of the great days of our time in Greece.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Unique experience in Milos</t>
+          <t>Real fishing in Greece!</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -789,12 +789,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Would recommend this tour 100% great experience with great people. Thanks for a unique and memorable activity! </t>
+          <t>Experience to do absolutely! Antonia very nice and helpful person for everything, great food and company!</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fantastic trout by amazing people </t>
+          <t>Great experience</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -805,12 +805,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Great fishing, nice food and beautiful bay to swim. Small fish were annoying to catch. Got great beer to compensate that. 6/5</t>
+          <t xml:space="preserve">I have been looking forward to this trip since June and it lived up to everything and more , Antonio was so good on communication no matter when , being a keen fisherman it was fascinating to see all the different species bought in , we all got stuck in getting the fish out as soon as possible ready for michalis to cook , anchored in a pretty cove and basically chilled until lunch was made , lobster , fish , pasta salads etc all washed down with homemade wine .. antonio was so welcoming and in no time the 10 on board were chatting like old friends .. fantastic day will return 100% next time in kefalonia , thank you again . Gary and Amanda </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fishing Trip</t>
+          <t xml:space="preserve">Fish, swim , eat , drink laugh </t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -821,12 +821,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I did the Fishing experience with friends and family a few days ago. Mr Nikos and his wife are very friendly and know all the good spots and beaches! Mr Nikos picked us up from Kimolos at exactly the agreed time, we went and gathered the nets, and then went to a number of…</t>
+          <t>I can not recommend this trip enough. We were made so welcome from beginning to end and the trip was an amazing experience for us adults as well as the children. We consisted of 4 adults and 5 children ranging from 5 years old to 15. Our first impressions were how spotlessly clean the boat was and how friendly George was. He was cheerful and very informative. Even the kids listened! After lowering the nets, we went swimming at a private island which was so beautiful. The children were amazed when we pulled the nets in and they saw all the fish that they’d caught. We then had another stop while George’s mother in law cooked for us. Absolutely delicious food. The kids even enjoyed it. George’s wine tasted amazing. Really great to see the kids tasting the fish that they’d caught. An unique experience for them. Thank you so much for a truly memorable day. The kids say it’s the best day of the holiday.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A must do experience</t>
+          <t>Amazing day out</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -837,12 +837,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Probably the best organised trip I have ever done on any holiday! I felt like they shared a secret bit of Kefalonia with us. The hosting was great, the food superb and to see how proper fisherman fish was fantastic. All in all a magical day and we will be recommending it to…</t>
+          <t>Antonia and her husband are the most wonderful, heart warming and lovely people you can spend a day on the boat with. We were shown how the fisherman is working daily - collecting the nets , checking the fish and later on throwing it back again in the sea to collect it the next day again!!!! And the best of all , you get to eat the most freshest and delicious fish of your life( for me especially , as I life in a big city far away from the sea).  Antonia is a fantastic cook , so she made sure we were all happy the whole day provided with lots of deliciousness!!! And the whole group was so nice to spend with, getting to know so many different life stories, having a break from your rational brain, relaxing your mind and feeding the soul!!! Thank you Antonia and Michaelis.... you Are the best!!!!</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>If you do nothing else in Kefalonia go on this trip!</t>
+          <t>Beautiful sail away :)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>My husband had booked this trip a few weeks before arriving in Kefalonia.   Antonia had contacted us the day before our trip to advise that the weather would not be good (windy) therefore the trip would need to be cancelled.  Although we were disappointed this shows that saftey…</t>
+          <t>Captain Kyriakos is an authentic man and very joyful person and his daughter Tina was very kind.They are both very friendly and full of humor!! We went for fishing and caught many fishes!! Mr Kyriakos and his daughter Tina cooked the fishes and other tradiniotal greek dishes. They also provided delicious breakfast and fruits! The trip and the beaches we visited were amazing (Gerakas, Tsigkardo, Kleftiko) . The fishing trip is for maximum 10 persons therefore i suggest to book 2-3 days before. The most amazing and authentic experience!! Thank you so much Captain and Tina!</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fantastic Evening!</t>
+          <t xml:space="preserve">Amazing and Authentic Experience </t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -869,12 +869,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>We went on an evening fishing trip around 6:30pm - we saw the sunset and dolphins, caught some fish, saw the lunar eclipse and the rest of the amazing night sky. Straight after the trip, which took us to around 10pm, we went to a restaurant where our fresh fish was cooked for us…</t>
+          <t xml:space="preserve">Went on this fishing trip with my sons - 16, 14 and 8. This was a lovely quiet trip with just a small boat and a small group of people. Run by such friendly people. We had a great time fishing, had the chance to swim between stops and were served a great lunch with fresh fresh sea bream. Highly recommend this trip - you will find their stall on Mandrake Harbour at the end nearest the deer statues. </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Must do in Skiathos!</t>
+          <t>Best day of our whole holiday</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -885,12 +885,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Our family of 6 (spanning the generations - from 84 year old Grandpa right down to our 7 year old) headed out with Dimitri and Efi today and I can't say enough good things about the entire experience. We had a lovely friendly welcome and were straight away offered a delicious…</t>
+          <t xml:space="preserve">A fabulous day out fishing with Dimitris on his own boat. We caught 98 fish between 7 people which was excellent and was shared out at the end of the trip. Needless to say we had to give it to one of the tavernas in return for a very cheap dinner. This is a great day out for anybody, couples and families alike.Stopping off for a swim and also lunch. I would love to do it again on another visit to Skiathos </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The BEST day out!!!</t>
+          <t xml:space="preserve">The Best day out </t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -901,12 +901,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I had a great day today, Anthi was warm from the first email to the goodbye hug.   Anthi is passionate about fishing, the marine environment and conserving it and knows the local area like the back of her hand. She and her crew are great accompaniments with a huge diversity of…</t>
+          <t>My husband and me book this tour it was a really nice trip the tourgides was friendly we feel home from the first moment .We have a perfect meal swim and sunset .We will come back...go on like this .Best regards‍️</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fantastic trip with passionate, sustainable local family run business.</t>
+          <t xml:space="preserve">Perfect </t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -917,12 +917,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>You have just got to go - no doubts ! A brilliant day out with Dimitrios and Efi , they are such a lovely couple and will go out of their way to ensure you enjoy your day, They set their nets at 3am in the morning and you then join them at 8am when they collect their nets and…</t>
+          <t>This fishing tour was the best part of our honeymoon! Our captain was this amazing woman who had been fishing all her life and she had lived right on the ocean with her family! She knew everything about the area and had so much knowledge and experience! We caught shrimp, eels, octopus, and a number of other fish! They had unlimited local wine and beer and appetizers for us while they cooked up all the fresh fish we had just caught!!! It was incredible! We also got to swim and snorkel in the bay and then watch the sunset on our way back to the port! It was such a great experience! Highly recommend!</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>An amazing day out</t>
+          <t>Best part of our honeymoon!</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -933,12 +933,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>This was by far the most relaxing experience I had during my journey. I absolutely love doing activities that are authentic and this was definitely one of them. The atmosphere was really amazing and I just can’t wait to come back on Captain‘s Tasos boat!</t>
+          <t xml:space="preserve">A unique expirience!! We eat the most fresh fish on lixouri. the food was cooked greek way and was excelent. the hospitality was grate and the cruise amazing.we had also music and wine. we do this cruize with my family twice! trust me and do it!! </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The most relaxing experience!!!</t>
+          <t>Lovelyy!</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -949,12 +949,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Great experience and kind staff. All equipment is provided as well as food and drinks on board. Traditional liquor is provided to try.</t>
+          <t>I did this for third time. Every time is getting better. Vasilis and Antonis are great people, the food excellent and the whole experience very relaxing and you can learn a lot of things if you ask. I suggest to everyone. Definitely, if I come next year in Rhodes, I will do it again. Great job, thank you...</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fishing</t>
+          <t>Amazing Experience</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -965,12 +965,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Just go...  Captain Anthi &amp; Crew are super-nice.  Lots of fresh fish to catch &amp; EAT. (From cages (for shrimps &amp; octopus) &amp; 1km-long net PLUS you can fish yourself.)  Fresh shrimps (caught in hand-made cages by Anthi's father)... super-big octopus.  Time well spent. ***  PS:…</t>
+          <t>We booked this trip for the last day of our holiday in Kefalonia and it became the absolute highlight of the week!Antonia and crew could not have made us more welcome-The fishing was incredible to watch first hand, the food was absolutely amazing, swimming in the crystal blue waters and lovely company on the boat! A Perfect day!We can honestly say this is a Wonderful and Unique experience that should not be missed and a chance to make some Magical MemoriesThank you so much for the best day of our holiday!</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FANTASTIC! *****</t>
+          <t>This was the best fishing trip EVER!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -981,12 +981,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>We had the best time out with these lovely people. Not only was the fishing experience fantastic for the kids and us, but Efi’s cooking was incredible! They are all so hospitable and friendly. ❤️ The swimming in the sea was amazing and the beaches truly beautiful. A fantastic…</t>
+          <t>I arranged a trip while in uk when we got there was told they was not going out so we rebooked and then was told the day before there was going to be bad weather,let me just say I am a seasoned fisherman from Grimsby,and the weather was perfect hardly any wind i just think they overbooked people which is a shame because I was really looking forward to this trip.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fantastic fishing trip</t>
+          <t>The trip that never was</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -997,12 +997,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I have to say, in all the years we have been coming to Kefalonia this is the BEST and funniest daytrip I have ever been on thanks to our wonderful hosts Efi Bacha Takidou and Dimitris Takidis and our lovely new friends Victoria, Simon, Sharon and Keith. We made the best memories…</t>
+          <t>What a great trip. Wonderful value for money, great fun and the best cooked piece of fish all holiday. The Captain (Vasilis?) Is a great, friendly and knowledgeable guy. Loved it! Shaun, Mike and Colin.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cannot recommend highly enough!</t>
+          <t>Boys Fishing Trip</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1013,12 +1013,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Anthi, Mohammed, &amp; Marco (Amr) were without a doubt amazing! Very knowledgeable staff &amp; simply just great people! We both tried fishing for the first time &amp; it was actually really fun! I caught my first little fish too! Keep in mind if you do get motion sickness easily which I…</t>
+          <t>Great experience and good value - lesson on how to fish, snorkelling, and a really good meal consisting of fish caught that day (even if you caught none you still got an equal portion). Thanks for a great day!</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fantastic experience! </t>
+          <t>Best day of our hols</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1029,12 +1029,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Our trip with Dimitris was certainly a highlight! We had a very personal contact. It was a great day and we had so much fun! Love the island, love Dimitris!</t>
+          <t>The fishing experience was enriching and one-of-a-kind, and the crew members friendly and thoughtful (not to mention incredible cooks). We watched them fish, name, and clean all kinds of fish (we even caught an octopus!) and observed other kinds of marine life at the same time. The route taken was varied and interesting, with some stunning waters, beaches, and volcanic rocks.This fishing tour is for people who enjoy eating fish, love the ocean water and want a truly Greek experience (and who want to taste the best fish broth they've ever had).If someone has issues with fish bones, we would recommend they call in advance and let them know, so they can serve and prepare additional food, which is what they did for us, as they are very accomodating and kind.Thank you Andreas, Andreas and Marios!</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Always on my mind</t>
+          <t>Very friendly people, excellent fresh fish and great experience!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1045,12 +1045,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>We wanted to go fishing on the island and came across this tour. It exceeded our expectations as we spent the whole day feeling like part of Tina's beautiful family as we caught fish, swam in crystal clear waters away from masses of tourists, and ate fresh grilled fish on the…</t>
+          <t>A day out with Effi&amp;Dimi is a day I can recommend for everybody.You learn about Greek food, all the varieties of fish, help out with the nets and then Effi cooks them for you! And we vhere lucky not to only see seals but as we anchored close to them some passengers swam close to where we spotted them and then the seals came as close as 5 meters! It was a great day out!</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Our best experience on Milos</t>
+          <t>A wonderful day out</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1061,12 +1061,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Meet the traditional fisherman Savvas and Stergos,  get on boat, start exploring the sea and catch your fish with the fishing rods!</t>
+          <t>Four of us are just back from a fantastic trip with Antonia and Michalis, their daughter Nicki and Hassan (I’m not sure how you spell his name ).  What a first class day from booking on the Web, Antonia got back to me so promptly it was unbelievable, to getting back to the harbour at the end of the day.  I don’t know where to start, they make you feel part of their family from the moment you step on board their lovely traditional fishing boat.  The day started with coffee and cake whilst leaving the harbour on our way to picking up the nets.  They caught Lobster and Sea Bream which was all prepared for a magnificent  lunch, it was the best food we have had whilst in Kephalonia.  If you do nothing else whilst there then this day is a must and we wouldn’t hesitate to join them again and in fact can’t wait to book again.I can’t think of anything negative to say, it was just a glorious day with people who made you feel like family.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fishing trip </t>
+          <t>Day Fishing trip</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1077,12 +1077,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A very educational trip. Ate fish I’d never even heard of (pork fish) and felt sorry for the stingrays and octopus that we caught as they also got sliced up and thrown into the pan.  Lovely hosts, excellent food, more than enough for everyone. You will catch loads of fish that…</t>
+          <t>A great and authentic experience ! We had a very nice day. Many thanks to Tina and her father for all they shared with us. You are so kind people. A real human experience Thank you for the excellent lunch !See you next time in Milos.Efharisto poli</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Reality of fishing</t>
+          <t>A memorable day</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1093,12 +1093,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Myself and my two brothers went on the all day traditional Greek fishing trip with captain Giorgos and his crew. The trip was throughly enjoyable and Giorgos was very informative. They really care about the environment and spoke passionately about the importance of sustainable…</t>
+          <t>What a great days fishing with the friendliest guy you’ll ever meet so much knowledge of the local area and knows where the fish are . He supplied beer, ham and cheese rolls , and a superb fruit salad ! Well done skipper we all had a great day!</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HIGHLY RECOMMEND ZANTE FISHING TOURS</t>
+          <t>Superb day fishing with family !</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1109,12 +1109,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>It is my first time ocean fishing.Giorgos is the best captain! He is knowledgable, and likes to share with people.  Such a good experience. It's not only about fishing. The food we got is fabulous as well!!</t>
+          <t xml:space="preserve">Loved the trip with George and the crew!Got the 7.30 start and was well worth it Had multiple swimming stops and even cooked seafood that was caught along the trip! A must do day trip for everyone involved! Cheers George </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fantastic day with Giorgos</t>
+          <t>Great trip</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1125,12 +1125,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>It is a great way to experience the ionian sea!! A day filled with amazing views, swimming, beaches you can only reach by boat and a catch of the day cooked meal by on board chef Sisi.</t>
+          <t xml:space="preserve">Anthony and his father are the most friendly people ever. We did two fantastic trips with them. We visited the volcano and did a sunset cruise. We were swimming in a beautiful bay and had an amazing dinner from fish, which they caught fresh before. We also saw the sunset accompanied by the great music performed by father and son.We had a really unforgettable experience. </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>the best boat trip of the island</t>
+          <t xml:space="preserve">Sunset Cruise </t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1141,12 +1141,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great couple, very friendly, very caring. Departed from Pollonia at 10.00 to go around the beautiful Poliaigos and returned at 18.00ish.. Great cook, and Super captain! </t>
+          <t>A fantastic experience we loved it, so will try to book for next Friday. Thoroughly recommend to anyone that fancies a day on a boat. Fish caught are cooked onboard for you</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Best boat tour in Milos!! </t>
+          <t>Brilliant Day</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1157,12 +1157,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Getting down with the locals...... Well, what a perfect day spent with the wonderful, charismatic Efi and husband Dimitrios.   Together with the fisherman of few words, Mohammed (but when he spoke, his words were kind and full of wisdom). It was magic watching him work those nets.   It was a day of fun, wonder, relaxation and laughter, gently cruising the coastline of Kefalonia.  We stopped a few times to haul in the fishing nets and those who wanted to helped free the vast assortment of fish and crustaceans from the nets.  A real education for a complete novice like me.    So we continued, anchoring twice to swim in exotic coves that were almost inaccessible by land.  Meanwhile,  Efi magically conjured up the most delicious  barbecued seafood feast, accompanied with local fresh salad and Efi’s secret recipe of buttery lemon potatoes.  Not to mention carafes of local wine and fresh fruit.....  Amazing how sharing good food and a few glasses of wine can unite strangers into friendship, united by such a splendid experience!     Saying goodbye was hard.  The end of a memorable day, feeling very happy and content.  Very thankful to all three of our perfect hosts.…</t>
+          <t>We had another fantastic trip with Efi and Dimitri (our third!). It's amazing to see the catch brought on board and if you want to you can help to untangle the fish from the nets. The swimming stops are always in beautiful locations and it's quite easy to get into the water and back on board again. I had a bad arm but still managed it! The lunch Efi prepares is the best fish you will ever taste and most of the other ingredients come from their garden, even the very good wine is from their grapes. Next time we are in Kefalonia we will definitely do this trip again - it's a lovely day out and Efi and Dimitri are now dear friends.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Magical Fishing Cruise</t>
+          <t>Another fantastic trip!</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1173,12 +1173,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">This trip is a must for visitors  to the island. Excellent day out. Friendly crew. Very accommodating. Highly recommended </t>
+          <t>If you want to experience fishing whilst in Milos then we would highly recommend this family run, laid back fishing experience. We were met by Tina and her dad at the beginning of the day. They took us to picturesque coves as we made our way to Kleftiko bay. We stopped to swim in the gorgeous clear Aegean sea, around fascinating caves. A continental breakfast of toast, croissants and delicious cakes were served with a choice of tea/coffee. Our two boys explored the sea with masks provided before spending the afternoon fishing catching eldarado's. The boys were able to help clean the fish and Tina prepared an amazing lunch of fresh fish soup, grilled barracuda and greek salads with bread. We were provided beers, wine, ouzo, soft drinks and water throughout the day. In summary we would highly recommend.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Excellent  day out</t>
+          <t>Must do when in Milos!</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1189,12 +1189,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>We had a fantastic day swimming - fishing - swimming - eating and more fishing , unfortunately no fish were caught today although a very large one snap the hook - we can not fault the skipper and his daughter and granddaughter - fun family day out with lovely fish dinner in…</t>
+          <t>We did this cruise a couple of days ago. All I can say is amazing! You start the cruise by collecting the fish net (actually cpt Andreas does it). Afterwards we went to the beautiful and almost “private” beaches of Poliaigos island which are really the highlight of the area in my opinion. We stopped at an amazing beach ,all by ourselves , to swim and afterwards have our lunch: the fresh fish we just cought ( “kakavia” a tradiftional Greek soup made of fish) and tasty home made “ladenia” - a traditional kind of pizza in Cyclades-by the captains mom. This was accompanied by salad made of tomatoes cucumbers and green peppers grown by the captains dad in milos! A really special and original meal! We stopped at several beaches of Poliaigos which are extremely beautiful and have the clearest water, astonishing landscape and all kinds of colors!At our final stop at pano Mersini beach we had home grown melon after our swim so that we would have the strength to “help” the captain throw his fishing net again in the sea :-) .Andreas the captain and his helper Andreas , made this experience so special and unique! One of the must do of milos and Kimolos! I highly recommend this!</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lovely day - lovely people </t>
+          <t>A unique experience! MUST do it!</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1205,12 +1205,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>I would reccomend this to anyone even if they have never fished before. The fishing the food the swim in the sea deserve 5 stars the captain is amazing and the food he cooked on board was chicken and all the fish we had caught was 5 stars</t>
+          <t xml:space="preserve">I Had a really great time , if you can just try it !!!The captain is awesome !! Really friendly guy ! </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fishing trip</t>
+          <t>Suggested 100℅</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1221,12 +1221,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>I had never fished before, but my boyfriend loves it so we thought we would give it a go. I absolutely loved it. Vasilli was so helpful, patient haha and friendly. He made sure we had drinks, knew what we were doing and that we had fun. We caught 14 fish between us, swam in the…</t>
+          <t>We had really fantastic time with this tour. We were ten people and it felt like having a private boat to ourselves to enjoy. The captain and the daughter are really nice people and the fishing part was good fun. The lunch , the fresh fished cooked on the boat, was amazing,plus there were many more thing to eat, from the cake in the morning to some snack before lunch and plenty of drinks. I appreciated a lot that the swimming stops were very long without any stricht time schedule and in spots that were a bit aside from where the other bigger boats. From what I have seen around, I believe this trip offers you something different from the other tours and it is really worth it particularly if you are more interested to enjoy a day on the sea more than making the tour of the entire island.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Best Trip</t>
+          <t>Fantastic Day</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1237,12 +1237,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Best fishing trip ever! My 13 yr old son wanted to go fishing and we contacted Giorgaros fishing trip with our hotel Consierge.  They were amazing and very professional a true family experience.  My son loves to learn about the different fish in the area and we caught an amazing…</t>
+          <t xml:space="preserve">Hello from the Norwegians.My fiancé Sam and I booked this boat trip as our wedding present to one of our favourite friends :) We wanted to book a whole day trip with authentic Greeks and authentic Greek foods and views. And that is exactly what we got!Antonia, Michalis the boat captain were absolutely amazing hosts and company throughout the whole trip! The trip started with the crew picking up the nets of fish. After that the boat travelled quite a distance to get to a quiet location near a beautiful beach with cliffs and a gorgeous view. We got to swim for a long time around the beach and boat, and the water was so warm and delightful. Then we were served beautiful starters (Greek style bruschetta), and after a while we were served a full main meal consisting of lobster, fish, spaghetti, Greek salad, Greek potato mash and beautiful local white wine. Throughout the whole trip the crew made sure we were informed of all the sights and fun local facts about the island. The crew were really good with mingling with us, but also give us some space to eat and space when needed.The married couple could not have been happier and more pleased with the gift, and kept saying throughout the entire trip how amazing the trip was!We could not have been more thankful, amazed and grateful for the trip, and want to thank the crew once again!We definitely recommend this trip highly! One of the most amazing things to do when visiting Kefalonia All the best and greetings from Norway,Karoline, Sam, Marita and Gunnar </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fishing trip in Santorini</t>
+          <t>An authentic and amazing Greek boat trip 🇬🇷</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1253,12 +1253,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Captain Kyriakos is an authentic man and very joyful person and his daughter Tina was very kind.They are both very friendly and full of humor!! We went for fishing and caught many fishes!! Mr Kyriakos and his daughter Tina cooked the fishes and other tradiniotal greek dishes. They also provided delicious breakfast and fruits! The trip and the beaches we visited were amazing (Gerakas, Tsigkardo, Kleftiko) . The fishing trip is for maximum 10 persons therefore i suggest to book 2-3 days before. The most amazing and authentic experience!! Thank you so much Captain and Tina!…</t>
+          <t>Vasilis and Andonis are really great! Having no experience in fishing, they tough us how to fish and of course we all managed to catch something lol or at least to get the feeling of it. We had a great time and of course eating BBQ fish on the boat was such cool experience. Definitely recommend doing this with the duo, good family vibes. Thank you again :-)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amazing and Authentic Experience </t>
+          <t>Great experience</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1269,12 +1269,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Stunning day out with the lovely Efi and Dimitri. Meet the boat at beautiful Kateleios harbour at 8am. Welcome aboard by charming hosts Efi and Dimitri. Motor out to bring in the nets and help as much or as little as you wish to untangle the catch of the day. Swim and Zumba the…</t>
+          <t>This was such an amazing day!! More thanks to Yanis and Nancy who are the owners of the boat and the first ones to offer a fishing trip in Samos than anything else ️ They gave us a feeling it was our own boat since the moment we met. All day long they make sure you are having fun, taking you on the boat to the best fishing spots and teaching you how to fish if needed. We were lucky to catch many of them. All of us. When fishing was over we parked at the most amazing Bay with water so clear I was sure you only get to see in the Bahamas  some jumped in and I was happy Yanis let me help him clean the fish :) We talked and made jokes all day, cooked the amazing fish we caught wish some fresh bread salad and white wine and couldn’t be happier on our way back. We made new friends and had such a good experience I would go a million times more !</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5*Only way to describe this trip</t>
+          <t>Best Fishing trip ever!!</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1285,12 +1285,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>We booked this trip for the last day of our holiday in Kefalonia and it became the absolute highlight of the week! Antonia and crew could not have made us more welcome-The fishing was incredible to watch first hand, the food was absolutely amazing, swimming in the crystal blue…</t>
+          <t>Travelling as a family, generally its difficult to find activities a couple and Girls would be happy to do. despite early reservations (would girls be ok with the fishing) we embarked on our trip and had a most wonderful experience.Captain Vassilli and his co pilot Mark were excellent and basically taught us all to fish, They showed great patience and skill with our 10 year old who initially found the sport alien, however she went on to catch 5 good fish...  and thoroughly enjoyed her day. to a man we all agreed this was a holiday highlight. Food was fabulous and included some of our catch... well done Makarounas Fishing Trip. Highly recommended.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>This was the best fishing trip EVER!</t>
+          <t>The best family fun we had in Rhodes..........</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1301,12 +1301,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you so much to Antonia and her family for a wonderful experience. A really different excursion. My 13 year old son enjoyed the day too. Antonia's preparation of the food was also exceptional </t>
+          <t>Dimitris is the attraction. We really enjoyed the adventuring experience on boat. Beautiful places and beaches, a tasty fish lunch and a huge  and delicious macedonia.A great company full of a great sense of sharing. Dimitris made all of this more enjoyable thank to his positive and polite attitude. He was one of us in every funny moment.One of the best experience to visit an island through the eyes of a great sailor!</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Unusual and Excellent Day</t>
+          <t>Amazing adventure</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1317,12 +1317,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>I had the opportunity to learn a lot about fishing tradition. I had a wonderful time as the boat is cosy and the crew is very responsible and experienced!!!</t>
+          <t>Dimitris and Effi are part of the new fishing tourism in Greece - a most interesting way of getting out there to see what life for fishermen entails. Really educational and I'm bringing my children next year - they will love seeing the colourful and varied fish - and lobster- a lot of which is later cooked by the hosts and eaten on the boat. Just come with swimming regalia - and snorkel - jump off the back of the boat into the cerulean waters and you can swim whilst lunch is prepped. Best fish I've tasted and you struggle to find anything fresher. Katelios harbour is easy to find - there's a toilet on the boat - and everything very clean. Message Effi and she promptly replies. The return journey was really exhilarating when Dmitris turns up the engines. I felt a bit sick and Effi had far superior pills on offer than the ones I had at home. Thanks guys !!!! Yamas xxxx</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A perfect fishing trip!</t>
+          <t>Fantastic trip with lovely hosts</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1333,12 +1333,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>This is a special trip. If you have the opportunity, take it. And you may have the best lunch you will ever have on your holiday.</t>
+          <t xml:space="preserve">If you like to spend some hours with the pure local people (fisherman + his wife) doing an unusual super experience.. this is for you! We spent a day with Nikos and his company and we will never forget it. Tour around three islands, fishing, swimming, just perfect. It's not luxury, it's pure Cycladic and you will love it! </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Unique day.</t>
+          <t>Top traditional experience</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1349,12 +1349,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>If you want to see a fisherman in his local environment - pulling in the nets in and allowing you - if you wish - to help take the fish out - then cooking them along with the most fantastic prawns then this is a must trip.  My wife and I joined another couple who had booked for…</t>
+          <t>We go with Nikos, his wife Froso and Simon to the FishingTrip it was great ... best food fresh from the Ocean, very interesting to see the work of fishermen, speaking about living on milos and the traditions ... beautiful places for swimming! and looking!!! Snacks, fishsoup, baked fishes, greek  coffee, yoghurt with homemade sweets and watermelone, Drinks how much we want and a Ouzo before  leaving the boat!!! A very nice and  perfect day! Thanks so much Anita and Bernd.... a „must to do“ staying in Milos</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>What an amazing day !</t>
+          <t>Perfect day</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1365,12 +1365,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>We just came back from a very nice experience of fishing trip of 4 hours in the night. We all enjoyed the explanations from Dimitris, the music, the refreshment, the very nice atmosphere and of course fishing red snappers. Very recommended!!!</t>
+          <t xml:space="preserve">Best fishing trip ever! My 13 yr old son wanted to go fishing and we contacted Giorgaros fishing trip with our hotel Consierge.  They were amazing and very professional a true family experience.  My son loves to learn about the different fish in the area and we caught an amazing variety in the local way.  Nets were set a day ahead and we harvested them the day of the trip, we caught lots of shrimp, cuddle fish, octopus and many fish varieties.  They fried some shrimp on the boat and provided lunch for us.  It does not get any fresher than that!!Big hurray for Giorgaros fishing tours for allowing us to join in their local fishing experience:) We will definitely come back. </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Excellent Night Fishing</t>
+          <t>Fishing trip in Santorini</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1381,12 +1381,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Had a lovely day yesterday with Efi and Dimitrios we where due to do the trip early in the week but due to the bad weather Efi rearranged it for us, from start to finish this trip was fun and full of information about Kefalonia and the fish we caught and Efi cooked. There was 8…</t>
+          <t xml:space="preserve">Great trip, caught lots of fish and the barbecue was delicious! Trip lasted 5/6 hours and we where catching fish the whole time. </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Brilliant day made by Efi and Dimitrios</t>
+          <t>Fishing trip</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1397,12 +1397,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Celebrating my sons birthday we have chosen the fishing tour. As Greeks we found this genuine and unique. It reminds me my fathers fishing nights. Anthi and her team are immaculate. Anthi is not only born as a Mermaid but she holds a Masters degree in Political philosophy and a…</t>
+          <t>My daughter told me to book the trip as it looked really interesting to me spending a day on a working fishing boat &amp; so glad we did it.We had the most amazing day with our hosts and our fellow passengers newlyweds Piotr and Malwina from Poland and Danielle from Blackpool who were great company.Emptying the nets, snorkelling in secluded bays, eating fresh snapper and lobster and drinking a few cheeky glasses of wine and plenty of laughs.An awesome day we will never forget.Thank you for your hospitality.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Unforgetable experience</t>
+          <t>Amazing</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1413,12 +1413,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Wonderful experience!  We caught more than we could eat and swam in the most amazing waters!   Our skipper was fun, professional and a great cook!  This is a must do in Poros!</t>
+          <t>Great Daytrip with Captain Michalis and his wife Antonia. The group of 12 guests started at 08 hrs in the morning with fresh coffee and cake. After picking up the nets the catch is papared on board! The food was really good and Antonia was a great host.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fishing!</t>
+          <t>Great Daytrip with awesome Seafood</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
